--- a/PlanetDollarSizing.xlsx
+++ b/PlanetDollarSizing.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graboskyc/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graboskyc/Documents/GitHub/MongoDBSizing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3ED47FA5-EDE3-EE4F-A0CA-A5F7410B0F72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EB89E7-2418-9348-B1E4-F6AD41ECF787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="1560" windowWidth="51200" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="51200" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sizing" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>Assumptions</t>
   </si>
@@ -270,13 +269,16 @@
     <t>Estimated IOPS</t>
   </si>
   <si>
-    <t>Estimated shards needed</t>
-  </si>
-  <si>
     <t>Atlas max is 4TB</t>
   </si>
   <si>
     <t>Average Event Size (bytes)</t>
+  </si>
+  <si>
+    <t>Estimated shard count needed</t>
+  </si>
+  <si>
+    <t>Shard count's limiting factor is</t>
   </si>
 </sst>
 </file>
@@ -284,10 +286,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -334,6 +336,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -397,7 +405,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -426,14 +434,14 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
@@ -441,10 +449,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -762,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J99"/>
+  <dimension ref="A2:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="293" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="293" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1086,8 +1102,8 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>82</v>
+      <c r="A24" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="B24" s="11">
         <v>1024</v>
@@ -1795,7 +1811,7 @@
       <c r="A68" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="25">
+      <c r="B68" s="24">
         <f>B32*60</f>
         <v>300000</v>
       </c>
@@ -1812,7 +1828,7 @@
       <c r="A69" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="25">
+      <c r="B69" s="24">
         <f>B31/60</f>
         <v>1.6666666666666667</v>
       </c>
@@ -1829,7 +1845,7 @@
       <c r="A70" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="25">
+      <c r="B70" s="24">
         <f>B69*B68</f>
         <v>500000</v>
       </c>
@@ -1848,7 +1864,7 @@
       <c r="A71" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="25">
+      <c r="B71" s="24">
         <f>B70*(1-B26)</f>
         <v>49999.999999999985</v>
       </c>
@@ -1986,8 +2002,8 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="24" t="s">
-        <v>81</v>
+      <c r="G80" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -2057,7 +2073,10 @@
         <f>ROUNDUP(C50/B79,0)</f>
         <v>1</v>
       </c>
-      <c r="C85" s="4"/>
+      <c r="C85" s="25" t="str">
+        <f>A85</f>
+        <v>Based on RAM</v>
+      </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -2074,7 +2093,10 @@
         <f>ROUNDUP((C38+C43)/B80,0)</f>
         <v>7</v>
       </c>
-      <c r="C86" s="4"/>
+      <c r="C86" s="25" t="str">
+        <f t="shared" ref="C86:C87" si="5">A86</f>
+        <v>Based on Disk Space</v>
+      </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -2088,9 +2110,13 @@
         <v>69</v>
       </c>
       <c r="B87" s="7">
+        <f>ROUNDUP(B73/B81,0)</f>
         <v>9</v>
       </c>
-      <c r="C87" s="4"/>
+      <c r="C87" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v>Based on IOPS</v>
+      </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -2112,7 +2138,7 @@
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B89" s="15">
@@ -2147,7 +2173,7 @@
       <c r="A95" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B95" s="23">
+      <c r="B95" s="26">
         <f>D38</f>
         <v>70.243701338768005</v>
       </c>
@@ -2156,7 +2182,7 @@
       <c r="A96" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B96" s="23">
+      <c r="B96" s="26">
         <f>D43</f>
         <v>39.198494050651789</v>
       </c>
@@ -2165,7 +2191,7 @@
       <c r="A97" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B97" s="15">
+      <c r="B97" s="27">
         <f>C50</f>
         <v>14.021247625350952</v>
       </c>
@@ -2174,18 +2200,27 @@
       <c r="A98" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B98" s="15">
+      <c r="B98" s="27">
         <f>B73</f>
         <v>65049.999999999985</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B99" s="15">
+        <v>82</v>
+      </c>
+      <c r="B99" s="27">
         <f>B89</f>
         <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" s="27" t="str">
+        <f>VLOOKUP(B89,B85:C87,2,TRUE)</f>
+        <v>Based on IOPS</v>
       </c>
     </row>
   </sheetData>

--- a/PlanetDollarSizing.xlsx
+++ b/PlanetDollarSizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graboskyc/Documents/GitHub/MongoDBSizing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EB89E7-2418-9348-B1E4-F6AD41ECF787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF1977-A0B3-C245-8608-4605CD35D316}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1560" windowWidth="51200" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,9 +285,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -405,7 +406,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -432,8 +433,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -442,9 +441,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -460,6 +456,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -780,13 +798,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="293" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="293" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1102,7 +1121,7 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B24" s="11">
@@ -1293,7 +1312,7 @@
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="15">
         <f>B22*B23</f>
         <v>215496000000</v>
       </c>
@@ -1310,15 +1329,15 @@
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="14">
         <f>B36*B24</f>
         <v>220667904000000</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="16">
         <f t="shared" ref="C37:C38" si="0">B37/1024^3</f>
         <v>205513.00048828125</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="17">
         <f t="shared" ref="D37:D38" si="1">C37/1024</f>
         <v>200.69628953933716</v>
       </c>
@@ -1333,15 +1352,15 @@
       <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="14">
         <f>B37*B27</f>
         <v>77233766400000</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="16">
         <f t="shared" si="0"/>
         <v>71929.550170898438</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="17">
         <f t="shared" si="1"/>
         <v>70.243701338768005</v>
       </c>
@@ -1412,15 +1431,15 @@
       <c r="A43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="14">
         <f>B22*B23*B28</f>
         <v>43099200000000</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="17">
         <f>B43/1024^3</f>
         <v>40139.257907867432</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="17">
         <f>C43/1024</f>
         <v>39.198494050651789</v>
       </c>
@@ -1461,7 +1480,7 @@
       <c r="A46" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="21">
         <f>(B30/60)/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
@@ -1478,7 +1497,7 @@
       <c r="A47" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="21">
         <f>B23*B46</f>
         <v>12300000</v>
       </c>
@@ -1495,15 +1514,15 @@
       <c r="A48" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="21">
         <f>B47*B24</f>
         <v>12595200000</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="26">
         <f t="shared" ref="C48:C49" si="2">B48/1024^3</f>
         <v>11.730194091796875</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="26">
         <f t="shared" ref="D48:D49" si="3">C48/1024</f>
         <v>1.1455267667770386E-2</v>
       </c>
@@ -1518,15 +1537,15 @@
       <c r="A49" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="21">
         <f>B47*B28</f>
         <v>2460000000</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="26">
         <f t="shared" si="2"/>
         <v>2.2910535335540771</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="26">
         <f t="shared" si="3"/>
         <v>2.2373569663614035E-3</v>
       </c>
@@ -1542,11 +1561,11 @@
         <v>40</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="20">
+      <c r="C50" s="25">
         <f t="shared" ref="C50:D50" si="4">SUM(C48:C49)</f>
         <v>14.021247625350952</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="25">
         <f t="shared" si="4"/>
         <v>1.3692624634131789E-2</v>
       </c>
@@ -1611,7 +1630,7 @@
       <c r="A55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="21">
         <f>B23/(3600*24)</f>
         <v>3416.6666666666665</v>
       </c>
@@ -1628,7 +1647,7 @@
       <c r="A56" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="21">
         <f>B32</f>
         <v>5000</v>
       </c>
@@ -1645,7 +1664,7 @@
       <c r="A57" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="21">
         <f>B56*(1+B29)</f>
         <v>15000</v>
       </c>
@@ -1660,7 +1679,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -1674,7 +1693,7 @@
       <c r="A59" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="21">
         <f>IF(B25 = "TTL",B56,0)</f>
         <v>0</v>
       </c>
@@ -1693,7 +1712,7 @@
       <c r="A60" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="21">
         <f>B59*(B29+1)</f>
         <v>0</v>
       </c>
@@ -1708,7 +1727,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -1722,7 +1741,7 @@
       <c r="A62" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="7"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -1736,7 +1755,7 @@
       <c r="A63" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="28">
         <v>5</v>
       </c>
       <c r="C63" s="4"/>
@@ -1752,7 +1771,7 @@
       <c r="A64" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="28">
         <v>100</v>
       </c>
       <c r="C64" s="4"/>
@@ -1768,7 +1787,7 @@
       <c r="A65" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="21">
         <f>(B63*B64)*(1-B26)</f>
         <v>49.999999999999986</v>
       </c>
@@ -1783,7 +1802,7 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
-      <c r="B66" s="7"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -1797,7 +1816,7 @@
       <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="7"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -1811,7 +1830,7 @@
       <c r="A68" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="24">
+      <c r="B68" s="21">
         <f>B32*60</f>
         <v>300000</v>
       </c>
@@ -1828,7 +1847,7 @@
       <c r="A69" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="24">
+      <c r="B69" s="21">
         <f>B31/60</f>
         <v>1.6666666666666667</v>
       </c>
@@ -1845,7 +1864,7 @@
       <c r="A70" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="24">
+      <c r="B70" s="21">
         <f>B69*B68</f>
         <v>500000</v>
       </c>
@@ -1864,7 +1883,7 @@
       <c r="A71" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B71" s="21">
         <f>B70*(1-B26)</f>
         <v>49999.999999999985</v>
       </c>
@@ -1881,7 +1900,7 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -1895,7 +1914,7 @@
       <c r="A73" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="29">
         <f>B57+B60+B71+B65</f>
         <v>65049.999999999985</v>
       </c>
@@ -1978,7 +1997,7 @@
       <c r="A79" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="12">
         <v>32</v>
       </c>
       <c r="C79" s="4"/>
@@ -1994,7 +2013,7 @@
       <c r="A80" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B80" s="12">
         <f>16*1024</f>
         <v>16384</v>
       </c>
@@ -2002,7 +2021,7 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="23" t="s">
+      <c r="G80" s="20" t="s">
         <v>80</v>
       </c>
       <c r="H80" s="4"/>
@@ -2013,7 +2032,7 @@
       <c r="A81" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81" s="12">
         <v>8000</v>
       </c>
       <c r="C81" s="4"/>
@@ -2069,11 +2088,11 @@
       <c r="A85" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B85" s="14">
+      <c r="B85" s="30">
         <f>ROUNDUP(C50/B79,0)</f>
         <v>1</v>
       </c>
-      <c r="C85" s="25" t="str">
+      <c r="C85" s="22" t="str">
         <f>A85</f>
         <v>Based on RAM</v>
       </c>
@@ -2089,11 +2108,11 @@
       <c r="A86" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="31">
         <f>ROUNDUP((C38+C43)/B80,0)</f>
         <v>7</v>
       </c>
-      <c r="C86" s="25" t="str">
+      <c r="C86" s="22" t="str">
         <f t="shared" ref="C86:C87" si="5">A86</f>
         <v>Based on Disk Space</v>
       </c>
@@ -2109,11 +2128,11 @@
       <c r="A87" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="31">
         <f>ROUNDUP(B73/B81,0)</f>
         <v>9</v>
       </c>
-      <c r="C87" s="25" t="str">
+      <c r="C87" s="22" t="str">
         <f t="shared" si="5"/>
         <v>Based on IOPS</v>
       </c>
@@ -2127,7 +2146,7 @@
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -2138,10 +2157,10 @@
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="24">
         <f>MAX(B85:B87)</f>
         <v>9</v>
       </c>
@@ -2150,13 +2169,13 @@
       <c r="A90" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="32">
         <f>B73/B89</f>
         <v>7227.7777777777765</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="18" t="s">
         <v>75</v>
       </c>
       <c r="B93" s="1"/>
@@ -2170,55 +2189,55 @@
       <c r="J93" s="1"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B95" s="26">
+      <c r="B95" s="23">
         <f>D38</f>
         <v>70.243701338768005</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B96" s="26">
+      <c r="B96" s="23">
         <f>D43</f>
         <v>39.198494050651789</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B97" s="24">
         <f>C50</f>
         <v>14.021247625350952</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B98" s="27">
+      <c r="B98" s="24">
         <f>B73</f>
         <v>65049.999999999985</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B99" s="24">
         <f>B89</f>
         <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B100" s="27" t="str">
+      <c r="B100" s="24" t="str">
         <f>VLOOKUP(B89,B85:C87,2,TRUE)</f>
         <v>Based on IOPS</v>
       </c>

--- a/PlanetDollarSizing.xlsx
+++ b/PlanetDollarSizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graboskyc/Documents/GitHub/MongoDBSizing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF1977-A0B3-C245-8608-4605CD35D316}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158DAC17-CEA1-2C4C-9A72-F57705926387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1560" windowWidth="51200" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>Assumptions</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Based on RAM</t>
   </si>
   <si>
-    <t>Based on Disk Space</t>
-  </si>
-  <si>
     <t>Based on IOPS</t>
   </si>
   <si>
@@ -279,6 +276,30 @@
   </si>
   <si>
     <t>Shard count's limiting factor is</t>
+  </si>
+  <si>
+    <t>OpLog Percentage</t>
+  </si>
+  <si>
+    <t>OpLog Size Per Server (GB)</t>
+  </si>
+  <si>
+    <t>Based on Compressed Disk Space</t>
+  </si>
+  <si>
+    <t>Based on Compressed Disk Space &amp; OpLog</t>
+  </si>
+  <si>
+    <t>OpLog &amp; System Files</t>
+  </si>
+  <si>
+    <t>OS &amp; System Files (GB)</t>
+  </si>
+  <si>
+    <t>Based on Compressed Disk Space &amp; OpLog &amp; OS</t>
+  </si>
+  <si>
+    <t>Headroom Percentage per shard</t>
   </si>
 </sst>
 </file>
@@ -288,7 +309,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -406,7 +427,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -458,10 +479,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -480,6 +501,18 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -796,15 +829,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J100"/>
+  <dimension ref="A2:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="293" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="293" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1036,7 +1069,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1122,7 +1155,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="11">
         <v>1024</v>
@@ -1170,7 +1203,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="11">
         <v>0.35</v>
@@ -1202,7 +1235,7 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
@@ -2022,7 +2055,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -2059,7 +2092,9 @@
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="4"/>
+      <c r="A83" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2070,11 +2105,13 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="4"/>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="33">
+        <v>0.05</v>
+      </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -2084,18 +2121,14 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B85" s="30">
-        <f>ROUNDUP(C50/B79,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C85" s="22" t="str">
-        <f>A85</f>
-        <v>Based on RAM</v>
-      </c>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="35">
+        <v>2</v>
+      </c>
+      <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -2105,17 +2138,14 @@
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" s="31">
-        <f>ROUNDUP((C38+C43)/B80,0)</f>
-        <v>7</v>
-      </c>
-      <c r="C86" s="22" t="str">
-        <f t="shared" ref="C86:C87" si="5">A86</f>
-        <v>Based on Disk Space</v>
-      </c>
+      <c r="A86" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="4">
+        <f>B84*B80</f>
+        <v>819.2</v>
+      </c>
+      <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -2125,17 +2155,9 @@
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="31">
-        <f>ROUNDUP(B73/B81,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C87" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>Based on IOPS</v>
-      </c>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -2145,8 +2167,10 @@
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="4"/>
-      <c r="B88" s="31"/>
+      <c r="A88" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -2156,89 +2180,225 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="20" t="s">
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="30">
+        <f>ROUNDUP(D89,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C89" s="22" t="str">
+        <f>A89</f>
+        <v>Based on RAM</v>
+      </c>
+      <c r="D89" s="38">
+        <f>C50/B79</f>
+        <v>0.43816398829221725</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="30">
+        <f t="shared" ref="B90:B93" si="5">ROUNDUP(D90,0)</f>
+        <v>7</v>
+      </c>
+      <c r="C90" s="22" t="str">
+        <f t="shared" ref="C90:C93" si="6">A90</f>
+        <v>Based on Compressed Disk Space</v>
+      </c>
+      <c r="D90" s="38">
+        <f>(C38+C43)/B80</f>
+        <v>6.8401372118387371</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="30">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C91" s="22" t="str">
+        <f>A91</f>
+        <v>Based on Compressed Disk Space &amp; OpLog</v>
+      </c>
+      <c r="D91" s="38">
+        <f>(C38+C43)/(B80-B86)</f>
+        <v>7.2001444335144607</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="30">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C92" s="22" t="str">
+        <f>A92</f>
+        <v>Based on Compressed Disk Space &amp; OpLog &amp; OS</v>
+      </c>
+      <c r="D92" s="38">
+        <f>(C38+C43)/(B80-(B86+B85))</f>
+        <v>7.2010697354438706</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" s="30">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C93" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>Based on IOPS</v>
+      </c>
+      <c r="D93" s="38">
+        <f>B73/B81</f>
+        <v>8.1312499999999979</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="4"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" s="24">
+        <f>MAX(B89:B93)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="24">
-        <f>MAX(B85:B87)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B90" s="32">
-        <f>B73/B89</f>
+      <c r="B96" s="32">
+        <f>B73/B95</f>
         <v>7227.7777777777765</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="18" t="s">
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="37">
+        <f>1-(MAX(D89:D93)/B95)</f>
+        <v>9.652777777777799E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" s="23">
+      <c r="B101" s="23">
         <f>D38</f>
         <v>70.243701338768005</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" s="23">
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" s="23">
         <f>D43</f>
         <v>39.198494050651789</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B97" s="24">
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="24">
         <f>C50</f>
         <v>14.021247625350952</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B98" s="24">
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="24">
         <f>B73</f>
         <v>65049.999999999985</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="19" t="s">
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" s="24">
+        <f>B95</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="24">
-        <f>B89</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" s="24" t="str">
-        <f>VLOOKUP(B89,B85:C87,2,TRUE)</f>
+      <c r="B106" s="34" t="str">
+        <f>VLOOKUP(B95,B89:C93,2,TRUE)</f>
         <v>Based on IOPS</v>
       </c>
     </row>

--- a/PlanetDollarSizing.xlsx
+++ b/PlanetDollarSizing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graboskyc/Documents/GitHub/MongoDBSizing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158DAC17-CEA1-2C4C-9A72-F57705926387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104AD2CA-6D2B-4343-A130-2F97FF55F538}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="51200" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2140" yWindow="2220" windowWidth="43320" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sizing" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Chris Grabosky</author>
+  </authors>
+  <commentList>
+    <comment ref="B96" authorId="0" shapeId="0" xr:uid="{2D1E9616-3623-AE48-B09D-C636E40B6BF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chris Grabosky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This looks like a complicated formula. Basically what it is doing is figuring out the limiting factor for shard count (RAM, disk, IOPS) bu doing a max on the shard counts, then doing a vlookup to see if it is RAM, CPU, or disk, then figuring out the max capacity of that one metric, and seeing what percentage is used of that metric
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>Assumptions</t>
   </si>
@@ -254,21 +298,12 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>Estimated compressed size on disk (TB)</t>
-  </si>
-  <si>
     <t>Estimated working set size in memory (GB)</t>
   </si>
   <si>
-    <t>Estimated index size (TB)</t>
-  </si>
-  <si>
     <t>Estimated IOPS</t>
   </si>
   <si>
-    <t>Atlas max is 4TB</t>
-  </si>
-  <si>
     <t>Average Event Size (bytes)</t>
   </si>
   <si>
@@ -300,18 +335,46 @@
   </si>
   <si>
     <t>Headroom Percentage per shard</t>
+  </si>
+  <si>
+    <t>Atlas max is 4TB,recommended is 2-4TB per server best practice</t>
+  </si>
+  <si>
+    <t>Round Up</t>
+  </si>
+  <si>
+    <t>Raw Value</t>
+  </si>
+  <si>
+    <t>Estimated total compressed size on disk (TB)</t>
+  </si>
+  <si>
+    <t>Estimated total index size (TB)</t>
+  </si>
+  <si>
+    <t>Estimated compressed size on disk per shard (TB)</t>
+  </si>
+  <si>
+    <t>Used for vLookups</t>
+  </si>
+  <si>
+    <t>Coorelating limiting factor for vlookups</t>
+  </si>
+  <si>
+    <t>Max capable per shard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -367,6 +430,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -398,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -421,13 +503,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -470,12 +561,6 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,6 +598,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -828,36 +924,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="293" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -867,11 +976,10 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -881,11 +989,10 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -895,25 +1002,23 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -923,41 +1028,37 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -967,25 +1068,23 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -995,11 +1094,10 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1009,11 +1107,10 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1023,11 +1120,10 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1037,11 +1133,10 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1051,11 +1146,10 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1065,12 +1159,9 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>73</v>
-      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1079,37 +1170,39 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="11">
+        <f>365*2</f>
+        <v>730</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1117,15 +1210,14 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="11">
-        <f>365*2</f>
-        <v>730</v>
+        <v>18</v>
+      </c>
+      <c r="B22" s="12">
+        <f>5000*5*3600+3000*19*3600</f>
+        <v>295200000</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1134,15 +1226,13 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="12">
-        <f>5000*5*3600+3000*19*3600</f>
-        <v>295200000</v>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1024</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1151,14 +1241,13 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="11">
-        <v>1024</v>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1167,14 +1256,13 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>20</v>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.9</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1183,14 +1271,13 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>21</v>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B26" s="11">
-        <v>0.9</v>
+        <v>0.35</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1199,14 +1286,13 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B27" s="11">
-        <v>0.35</v>
+        <v>200</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1215,14 +1301,13 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>22</v>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B28" s="11">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1231,14 +1316,13 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="11">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="B29" s="13">
+        <v>60</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1247,14 +1331,13 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="13">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1263,14 +1346,13 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="13">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1279,15 +1361,10 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="13">
-        <v>5000</v>
-      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1295,43 +1372,45 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="15">
+        <f>B21*B22</f>
+        <v>215496000000</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1339,72 +1418,63 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="15">
-        <f>B22*B23</f>
-        <v>215496000000</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="14">
+        <f>B35*B23</f>
+        <v>220667904000000</v>
+      </c>
+      <c r="C36" s="16">
+        <f t="shared" ref="C36:C37" si="0">B36/1024^3</f>
+        <v>205513.00048828125</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" ref="D36:D37" si="1">C36/1024</f>
+        <v>200.69628953933716</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="14">
-        <f>B36*B24</f>
-        <v>220667904000000</v>
+        <f>B36*B26</f>
+        <v>77233766400000</v>
       </c>
       <c r="C37" s="16">
-        <f t="shared" ref="C37:C38" si="0">B37/1024^3</f>
-        <v>205513.00048828125</v>
+        <f t="shared" si="0"/>
+        <v>71929.550170898438</v>
       </c>
       <c r="D37" s="17">
-        <f t="shared" ref="D37:D38" si="1">C37/1024</f>
-        <v>200.69628953933716</v>
+        <f t="shared" si="1"/>
+        <v>70.243701338768005</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="14">
-        <f>B37*B27</f>
-        <v>77233766400000</v>
-      </c>
-      <c r="C38" s="16">
-        <f t="shared" si="0"/>
-        <v>71929.550170898438</v>
-      </c>
-      <c r="D38" s="17">
-        <f t="shared" si="1"/>
-        <v>70.243701338768005</v>
-      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1414,77 +1484,74 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="14">
+        <f>B21*B22*B27</f>
+        <v>43099200000000</v>
+      </c>
+      <c r="C42" s="17">
+        <f>B42/1024^3</f>
+        <v>40139.257907867432</v>
+      </c>
+      <c r="D42" s="17">
+        <f>C42/1024</f>
+        <v>39.198494050651789</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="14">
-        <f>B22*B23*B28</f>
-        <v>43099200000000</v>
-      </c>
-      <c r="C43" s="17">
-        <f>B43/1024^3</f>
-        <v>40139.257907867432</v>
-      </c>
-      <c r="D43" s="17">
-        <f>C43/1024</f>
-        <v>39.198494050651789</v>
-      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1493,13 +1560,15 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="21">
+        <f>(B29/60)/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1507,15 +1576,14 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
-        <v>36</v>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B46" s="21">
-        <f>(B30/60)/24</f>
-        <v>4.1666666666666664E-2</v>
+        <f>B22*B45</f>
+        <v>12300000</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1524,92 +1592,82 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B47" s="21">
-        <f>B23*B46</f>
-        <v>12300000</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+        <f>B46*B23</f>
+        <v>12595200000</v>
+      </c>
+      <c r="C47" s="24">
+        <f t="shared" ref="C47:C48" si="2">B47/1024^3</f>
+        <v>11.730194091796875</v>
+      </c>
+      <c r="D47" s="24">
+        <f t="shared" ref="D47:D48" si="3">C47/1024</f>
+        <v>1.1455267667770386E-2</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48" s="21">
-        <f>B47*B24</f>
-        <v>12595200000</v>
-      </c>
-      <c r="C48" s="26">
-        <f t="shared" ref="C48:C49" si="2">B48/1024^3</f>
-        <v>11.730194091796875</v>
-      </c>
-      <c r="D48" s="26">
-        <f t="shared" ref="D48:D49" si="3">C48/1024</f>
-        <v>1.1455267667770386E-2</v>
+        <f>B46*B27</f>
+        <v>2460000000</v>
+      </c>
+      <c r="C48" s="24">
+        <f t="shared" si="2"/>
+        <v>2.2910535335540771</v>
+      </c>
+      <c r="D48" s="24">
+        <f t="shared" si="3"/>
+        <v>2.2373569663614035E-3</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="21">
-        <f>B47*B28</f>
-        <v>2460000000</v>
-      </c>
-      <c r="C49" s="26">
-        <f t="shared" si="2"/>
-        <v>2.2910535335540771</v>
-      </c>
-      <c r="D49" s="26">
-        <f t="shared" si="3"/>
-        <v>2.2373569663614035E-3</v>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="23">
+        <f t="shared" ref="C49:D49" si="4">SUM(C47:C48)</f>
+        <v>14.021247625350952</v>
+      </c>
+      <c r="D49" s="23">
+        <f t="shared" si="4"/>
+        <v>1.3692624634131789E-2</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>40</v>
-      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="25">
-        <f t="shared" ref="C50:D50" si="4">SUM(C48:C49)</f>
-        <v>14.021247625350952</v>
-      </c>
-      <c r="D50" s="25">
-        <f t="shared" si="4"/>
-        <v>1.3692624634131789E-2</v>
-      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1619,37 +1677,39 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="21">
+        <f>B22/(3600*24)</f>
+        <v>3416.6666666666665</v>
+      </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -1657,15 +1717,14 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B55" s="21">
-        <f>B23/(3600*24)</f>
-        <v>3416.6666666666665</v>
+        <f>B31</f>
+        <v>5000</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1674,15 +1733,14 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>25</v>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B56" s="21">
-        <f>B32</f>
-        <v>5000</v>
+        <f>B55*(1+B28)</f>
+        <v>15000</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1691,16 +1749,10 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="21">
-        <f>B56*(1+B29)</f>
-        <v>15000</v>
-      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="4"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -1708,47 +1760,44 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4"/>
-      <c r="B58" s="27"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="21">
+        <f>IF(B24 = "TTL",B55,0)</f>
+        <v>0</v>
+      </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="F58" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B59" s="21">
-        <f>IF(B25 = "TTL",B56,0)</f>
+        <f>B58*(B28+1)</f>
         <v>0</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="21">
-        <f>B59*(B29+1)</f>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="4"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -1756,11 +1805,12 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4"/>
-      <c r="B61" s="27"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="21"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -1768,13 +1818,14 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="21"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="26">
+        <v>5</v>
+      </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -1782,14 +1833,13 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="28">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="B63" s="26">
+        <v>100</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1798,14 +1848,14 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" s="28">
-        <v>100</v>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="21">
+        <f>(B62*B63)*(1-B25)</f>
+        <v>49.999999999999986</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1814,16 +1864,10 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="21">
-        <f>(B63*B64)*(1-B26)</f>
-        <v>49.999999999999986</v>
-      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="3"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -1831,10 +1875,11 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="B66" s="21"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1843,126 +1888,116 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="21"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="21">
+        <f>B31*60</f>
+        <v>300000</v>
+      </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="F67" s="3"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B68" s="21">
-        <f>B32*60</f>
-        <v>300000</v>
+        <f>B30/60</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B69" s="21">
-        <f>B31/60</f>
-        <v>1.6666666666666667</v>
+        <f>B68*B67</f>
+        <v>500000</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="8" t="s">
-        <v>54</v>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B70" s="21">
-        <f>B69*B68</f>
-        <v>500000</v>
+        <f>B69*(1-B25)</f>
+        <v>49999.999999999985</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="F70" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="21">
-        <f>B70*(1-B26)</f>
-        <v>49999.999999999985</v>
-      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="4"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4"/>
-      <c r="B72" s="27"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="27">
+        <f>B56+B59+B70+B64</f>
+        <v>65049.999999999985</v>
+      </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="29">
-        <f>B57+B60+B71+B65</f>
-        <v>65049.999999999985</v>
-      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1972,36 +2007,35 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="4"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -2010,13 +2044,14 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" s="4"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" s="12">
+        <v>32</v>
+      </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -2024,63 +2059,57 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B79" s="12">
-        <v>32</v>
+        <f>4*1024</f>
+        <v>4096</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
+      <c r="F79" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B80" s="12">
-        <f>16*1024</f>
-        <v>16384</v>
+        <v>8000</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="F80" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" s="12">
-        <v>8000</v>
-      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="4"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2089,13 +2118,14 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" s="4"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="31">
+        <v>0.05</v>
+      </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -2103,14 +2133,13 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="33">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -2119,14 +2148,14 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" s="35">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B83*B79</f>
+        <v>204.8</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2135,16 +2164,10 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="4">
-        <f>B84*B80</f>
-        <v>819.2</v>
-      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -2152,262 +2175,291 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" s="36" t="s">
+        <v>96</v>
+      </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" s="28">
+        <f>ROUNDUP(C88,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C88" s="37">
+        <f>C49/B78</f>
+        <v>0.43816398829221725</v>
+      </c>
+      <c r="D88" s="36" t="str">
+        <f>A88</f>
+        <v>Based on RAM</v>
+      </c>
+      <c r="E88" s="36" t="str">
+        <f>A78</f>
+        <v>RAM (GB)</v>
+      </c>
+      <c r="F88" s="40">
+        <f>B78</f>
+        <v>32</v>
+      </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B89" s="30">
-        <f>ROUNDUP(D89,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C89" s="22" t="str">
-        <f>A89</f>
-        <v>Based on RAM</v>
-      </c>
-      <c r="D89" s="38">
-        <f>C50/B79</f>
-        <v>0.43816398829221725</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="B89" s="28">
+        <f>ROUNDUP(C89,0)</f>
+        <v>28</v>
+      </c>
+      <c r="C89" s="37">
+        <f>(C37+C42)/B79</f>
+        <v>27.360548847354949</v>
+      </c>
+      <c r="D89" s="36" t="str">
+        <f t="shared" ref="D89:D92" si="5">A89</f>
+        <v>Based on Compressed Disk Space</v>
+      </c>
+      <c r="E89" s="36" t="str">
+        <f>A79</f>
+        <v>Disk space (GB)</v>
+      </c>
+      <c r="F89" s="40">
+        <f>B79</f>
+        <v>4096</v>
+      </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B90" s="30">
-        <f t="shared" ref="B90:B93" si="5">ROUNDUP(D90,0)</f>
-        <v>7</v>
-      </c>
-      <c r="C90" s="22" t="str">
-        <f t="shared" ref="C90:C93" si="6">A90</f>
-        <v>Based on Compressed Disk Space</v>
-      </c>
-      <c r="D90" s="38">
-        <f>(C38+C43)/B80</f>
-        <v>6.8401372118387371</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="28">
+        <f>ROUNDUP(C90,0)</f>
+        <v>29</v>
+      </c>
+      <c r="C90" s="37">
+        <f>(C37+C42)/(B79-B85)</f>
+        <v>28.800577734057843</v>
+      </c>
+      <c r="D90" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v>Based on Compressed Disk Space &amp; OpLog</v>
+      </c>
+      <c r="E90" s="36" t="str">
+        <f>A79</f>
+        <v>Disk space (GB)</v>
+      </c>
+      <c r="F90" s="40">
+        <f>B79-B85</f>
+        <v>3891.2</v>
+      </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="8" t="s">
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B91" s="30">
+      <c r="B91" s="28">
+        <f>ROUNDUP(C91,0)</f>
+        <v>29</v>
+      </c>
+      <c r="C91" s="37">
+        <f>(C37+C42)/(B79-(B85+B84))</f>
+        <v>28.815388274906375</v>
+      </c>
+      <c r="D91" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="C91" s="22" t="str">
-        <f>A91</f>
-        <v>Based on Compressed Disk Space &amp; OpLog</v>
-      </c>
-      <c r="D91" s="38">
-        <f>(C38+C43)/(B80-B86)</f>
-        <v>7.2001444335144607</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
+        <v>Based on Compressed Disk Space &amp; OpLog &amp; OS</v>
+      </c>
+      <c r="E91" s="36" t="str">
+        <f>A79</f>
+        <v>Disk space (GB)</v>
+      </c>
+      <c r="F91" s="41">
+        <f>B79-(B85+B84)</f>
+        <v>3889.2</v>
+      </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B92" s="30">
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B92" s="28">
+        <f>ROUNDUP(C92,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C92" s="37">
+        <f>B72/B80</f>
+        <v>8.1312499999999979</v>
+      </c>
+      <c r="D92" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="C92" s="22" t="str">
-        <f>A92</f>
-        <v>Based on Compressed Disk Space &amp; OpLog &amp; OS</v>
-      </c>
-      <c r="D92" s="38">
-        <f>(C38+C43)/(B80-(B86+B85))</f>
-        <v>7.2010697354438706</v>
-      </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
+        <v>Based on IOPS</v>
+      </c>
+      <c r="E92" s="36" t="str">
+        <f>A80</f>
+        <v>Disk IOPS</v>
+      </c>
+      <c r="F92" s="40">
+        <f>B80</f>
+        <v>8000</v>
+      </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B93" s="30">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="C93" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>Based on IOPS</v>
-      </c>
-      <c r="D93" s="38">
-        <f>B73/B81</f>
-        <v>8.1312499999999979</v>
-      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="4"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="4"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-    </row>
-    <row r="95" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="20" t="s">
+    </row>
+    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B95" s="24">
-        <f>MAX(B89:B93)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="10" t="s">
+      <c r="B94" s="22">
+        <f>MAX(B88:B92)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B96" s="32">
-        <f>B73/B95</f>
-        <v>7227.7777777777765</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="37">
-        <f>1-(MAX(D89:D93)/B95)</f>
-        <v>9.652777777777799E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="18" t="s">
+      <c r="B95" s="30">
+        <f>B72/B94</f>
+        <v>2243.1034482758614</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" s="35">
+        <f>1-(VLOOKUP(MAX(C88:C92),C88:F92,4)/VLOOKUP(VLOOKUP(MAX(C88:C92),C88:E92,3),A78:B80,2))</f>
+        <v>5.0488281250000044E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="39">
+        <f>D37</f>
+        <v>70.243701338768005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="39">
+        <f>B100/B105</f>
+        <v>2.422196597888552</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" s="39">
+        <f>D42</f>
+        <v>39.198494050651789</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B101" s="23">
-        <f>D38</f>
-        <v>70.243701338768005</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B102" s="23">
-        <f>D43</f>
-        <v>39.198494050651789</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="19" t="s">
+      <c r="B103" s="39">
+        <f>C49</f>
+        <v>14.021247625350952</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B103" s="24">
-        <f>C50</f>
-        <v>14.021247625350952</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="19" t="s">
+      <c r="B104" s="22">
+        <f>B72</f>
+        <v>65049.999999999985</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B104" s="24">
-        <f>B73</f>
-        <v>65049.999999999985</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B105" s="24">
-        <f>B95</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="22">
+        <f>B94</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B106" s="34" t="str">
-        <f>VLOOKUP(B95,B89:C93,2,TRUE)</f>
-        <v>Based on IOPS</v>
+        <v>79</v>
+      </c>
+      <c r="B106" s="32" t="str">
+        <f>VLOOKUP(B94,B88:D92,3,TRUE)</f>
+        <v>Based on Compressed Disk Space &amp; OpLog &amp; OS</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="B24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TTL,Offpeak"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>